--- a/biology/Zoologie/Ecco_Jr/Ecco_Jr..xlsx
+++ b/biology/Zoologie/Ecco_Jr/Ecco_Jr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecco Jr. est un jeu d'aventure sorti sur Mega Drive et Sega Pico en 1995. Cet épisode spin-off de la série Ecco the Dolphin s'adresse aux jeunes joueurs, le jeu ne présente pas la difficulté caractéristique des autres épisodes.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le joueur incarne un jeune Ecco qui doit résoudre une série d'énigmes avec ses amis pour retrouver la grande baleine bleue. 
 </t>
@@ -542,7 +556,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeu propose trois personnages jouables : Ecco Jr., un autre dauphin à la peau sombre et une orque. Il est possible de changer de personnage à tout moment dans le jeu. 
 Il n'existe aucun véritable ennemi dans le jeu. Les requins présents dans les niveaux n'attaquent pas le joueur contrairement aux jeux précédents. 
